--- a/Indicateurs.xlsx
+++ b/Indicateurs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\TABLEAU_DE_BORD_CEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\TABLEAU_DE_BORD_CEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793889F6-D83B-4063-B616-499E0DB9518B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Annuelle" sheetId="1" r:id="rId1"/>
@@ -24,12 +23,12 @@
   </sheets>
   <definedNames>
     <definedName name="CURRENTYEAR">#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Matieres Premieres'!$C:$C,'Matieres Premieres'!$1:$1</definedName>
     <definedName name="LOOKUPMTH">#REF!</definedName>
     <definedName name="Month">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Matieres Premieres'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Matieres Premieres'!$C:$C,'Matieres Premieres'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -444,7 +443,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _C_F_A_-;\-* #,##0.00\ _C_F_A_-;_-* &quot;-&quot;??\ _C_F_A_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -857,7 +856,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1042,25 +1041,17 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{533BAF52-D488-4122-83C5-B40F27F916B0}"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Pourcentage 3" xfId="4" xr:uid="{FBAE6132-293A-4641-8AC1-85FDE68CC34D}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage 3" xfId="4"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1466,18 +1457,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="17.90625" customWidth="1"/>
     <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
@@ -1908,7 +1899,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="2">
-        <v>14184.9</v>
+        <v>14101</v>
       </c>
       <c r="C6" s="3">
         <v>1.2999999999999999E-2</v>
@@ -1980,13 +1971,24 @@
         <v>2021</v>
       </c>
       <c r="B7" s="85">
-        <v>15280.9</v>
+        <v>15319</v>
       </c>
       <c r="C7" s="84">
         <v>0.05</v>
       </c>
       <c r="D7" s="84">
         <v>2.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="83">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="85">
+        <v>16544</v>
+      </c>
+      <c r="C8" s="88">
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1996,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053AE2E7-B6B7-4A65-B5E0-E7D1454A6C90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2006,10 +2008,10 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AJ66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK1" sqref="AK1:AM1"/>
+      <selection pane="bottomRight" activeCell="AK72" sqref="AK72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.26953125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="13" bestFit="1" customWidth="1"/>
@@ -10689,18 +10691,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8655F0-8DE6-496E-8B09-E2DF0274222A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView zoomScale="151" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -11949,7 +11951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDC46AA-DC01-4E48-8A8C-6C2B2C0923F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -11960,7 +11962,7 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="2" width="9.1796875" style="5"/>
     <col min="3" max="3" width="10.7265625" style="5" customWidth="1"/>
@@ -27000,7 +27002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1917BF-F666-45EE-AB47-C75689DDE458}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -27010,7 +27012,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.453125" style="29" bestFit="1" customWidth="1"/>
   </cols>
@@ -27459,7 +27461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426D65DF-599D-4449-90CE-2B01A74FDDE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -27469,7 +27471,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="7.453125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6328125" style="7" bestFit="1" customWidth="1"/>
@@ -28516,7 +28518,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E61">
+  <sortState ref="A2:E61">
     <sortCondition ref="A2:A61"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28524,7 +28526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB9F0FF-BFA7-4DB8-998D-7770A2814A8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -28537,7 +28539,7 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
@@ -29450,20 +29452,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD8CCB6-D353-45CB-9393-7855D00327CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17.54296875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="48.6328125" style="10" bestFit="1" customWidth="1"/>
@@ -30290,7 +30292,7 @@
       <c r="D44" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="51" t="s">
+      <c r="E44" s="89" t="s">
         <v>62</v>
       </c>
       <c r="F44" s="15" t="s">
@@ -31129,9 +31131,6 @@
       <c r="A91" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="B91" s="17" t="s">
-        <v>118</v>
-      </c>
       <c r="C91" s="17" t="s">
         <v>118</v>
       </c>
@@ -31141,61 +31140,64 @@
       <c r="E91" s="51"/>
       <c r="F91" s="15"/>
     </row>
+    <row r="94" spans="1:6">
+      <c r="B94" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B4 B10:B61 B63:B79 B81:B88 B92:B1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+  <conditionalFormatting sqref="B1:B4 B10:B61 B63:B79 B81:B88 B92:B93 B95:B1048576">
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B9">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B88 B92:B1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89:B91">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89:B91">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  <conditionalFormatting sqref="B1:B88 B92:B93 B95:B1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4 C10:C61 C63:C79 C81:C88">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C9">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C88">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:C91">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:C91">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89:B90 B94">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{A1DE2D34-AE0F-4B83-9C71-E6EDACDB88DD}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{DE214A4E-8DAB-4556-B283-956E191126AA}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{A9259DB5-9560-46A8-8091-CE392BDE03FC}"/>
-    <hyperlink ref="E33" r:id="rId4" xr:uid="{D4264489-6964-4A38-8557-DA57E7F712CC}"/>
-    <hyperlink ref="E34" r:id="rId5" xr:uid="{C237801A-60AE-40EF-958B-584592BC6DBA}"/>
-    <hyperlink ref="E53" r:id="rId6" xr:uid="{76EF063B-CDD5-4CDC-99FF-CF6FAFF3BE62}"/>
-    <hyperlink ref="E52" r:id="rId7" xr:uid="{F6C240C0-E1EF-4145-B9B7-BD587FF60710}"/>
-    <hyperlink ref="E51" r:id="rId8" xr:uid="{5F9CE139-686C-4070-8E6A-67F587FAAAF0}"/>
-    <hyperlink ref="E50" r:id="rId9" xr:uid="{C4DDB21B-D441-4572-ADF8-F286795178BB}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E33" r:id="rId4"/>
+    <hyperlink ref="E34" r:id="rId5"/>
+    <hyperlink ref="E53" r:id="rId6"/>
+    <hyperlink ref="E52" r:id="rId7"/>
+    <hyperlink ref="E51" r:id="rId8"/>
+    <hyperlink ref="E50" r:id="rId9"/>
+    <hyperlink ref="E44" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Indicateurs.xlsx
+++ b/Indicateurs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\TABLEAU_DE_BORD_CEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BABA NDIAYE\Desktop\TABLEAU_DE_BORD_CEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Annuelle" sheetId="1" r:id="rId1"/>
@@ -445,10 +445,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _C_F_A_-;\-* #,##0.00\ _C_F_A_-;_-* &quot;-&quot;??\ _C_F_A_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _C_F_A_-;\-* #,##0.00\ _C_F_A_-;_-* &quot;-&quot;??\ _C_F_A_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -856,12 +856,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -870,7 +870,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -925,7 +925,7 @@
     <xf numFmtId="1" fontId="14" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1031,18 +1031,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="11" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
@@ -1463,9 +1464,9 @@
   </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -1989,6 +1990,9 @@
       </c>
       <c r="C8" s="88">
         <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D8" s="90">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -29456,13 +29460,13 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomRight" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -31131,6 +31135,9 @@
       <c r="A91" s="52" t="s">
         <v>108</v>
       </c>
+      <c r="B91" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="C91" s="17" t="s">
         <v>118</v>
       </c>
@@ -31139,11 +31146,6 @@
       </c>
       <c r="E91" s="51"/>
       <c r="F91" s="15"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="B94" s="17" t="s">
-        <v>118</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B4 B10:B61 B63:B79 B81:B88 B92:B93 B95:B1048576">
@@ -31182,7 +31184,7 @@
   <conditionalFormatting sqref="C89:C91">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89:B90 B94">
+  <conditionalFormatting sqref="B89:B91">
     <cfRule type="duplicateValues" dxfId="0" priority="25"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/Indicateurs.xlsx
+++ b/Indicateurs.xlsx
@@ -1466,7 +1466,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -1991,9 +1991,7 @@
       <c r="C8" s="88">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="D8" s="90">
-        <v>2.5000000000000001E-2</v>
-      </c>
+      <c r="D8" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
